--- a/biology/Médecine/Différenciation_des_lymphocytes_T/Différenciation_des_lymphocytes_T.xlsx
+++ b/biology/Médecine/Différenciation_des_lymphocytes_T/Différenciation_des_lymphocytes_T.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diff%C3%A9renciation_des_lymphocytes_T</t>
+          <t>Différenciation_des_lymphocytes_T</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La différenciation des lymphocytes T est le phénomène par lequel un lymphocyte T naïf, ayant une spécificité donnée pour un antigène, acquiert également des capacités effectrices particulières. Ce processus est induit dans le ganglion lymphatique au cours de l'interaction entre une cellule présentatrice d'antigène présentant l'antigène spécifique et le lymphocyte T naïf[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La différenciation des lymphocytes T est le phénomène par lequel un lymphocyte T naïf, ayant une spécificité donnée pour un antigène, acquiert également des capacités effectrices particulières. Ce processus est induit dans le ganglion lymphatique au cours de l'interaction entre une cellule présentatrice d'antigène présentant l'antigène spécifique et le lymphocyte T naïf.
 Selon l'environnement dans lequel elle a été activée avant de rejoindre les organes lymphoïdes, les cellules présentatrices d'antigènes produisent différentes cytokines pouvant induire différents programmes de différenciation des lymphocytes T. Il existe ainsi différentes voies de différenciation possibles pour un lymphocyte T, plus ou moins exclusives les unes des autres.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diff%C3%A9renciation_des_lymphocytes_T</t>
+          <t>Différenciation_des_lymphocytes_T</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Différentes populations de lymphocytes T</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes populations de lymphocytes T se distinguent notamment par la nature des cytokines qui sont produites. On distingue ainsi :
 Les lymphocytes Th1 qui produisent de l'IFNγ
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diff%C3%A9renciation_des_lymphocytes_T</t>
+          <t>Différenciation_des_lymphocytes_T</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Conditions de différenciation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des lymphocytes T naïfs vont se différencier en fonction des cytokines présentes lors de leur activation. Certains vont empêcher l'orientation vers un type particulier, d'autres vont favoriser la différenciation dans une direction précise. On peut résumer cela ainsi :
 IL-12 ⇒ Th1
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diff%C3%A9renciation_des_lymphocytes_T</t>
+          <t>Différenciation_des_lymphocytes_T</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Facteurs de transcription impliqués</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On considère que chaque lignée de lymphocyte T dépend de l'expression et de la régulation d'un facteur de transcription spécifique. On recense :
 Tbet pour les Th1
